--- a/program/Lab/wordList.xlsx
+++ b/program/Lab/wordList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">夜食</t>
   </si>
   <si>
-    <t xml:space="preserve">Midnightsnack</t>
+    <t xml:space="preserve">ㄗㄠˇ　ㄢ</t>
   </si>
   <si>
     <t xml:space="preserve">購物</t>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t xml:space="preserve">Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蘋果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">林檎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香蕉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バナナ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banana</t>
   </si>
 </sst>
 </file>
@@ -289,20 +307,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -323,218 +349,246 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.17"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="0"/>
+      <c r="W1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
